--- a/CTEHE2019/Proyectos/Ejemplo2_2526_Config1/Documentacion/Constructive Materials.xlsx
+++ b/CTEHE2019/Proyectos/Ejemplo2_2526_Config1/Documentacion/Constructive Materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectosCTEyCEE\CTEHE2019\Proyectos\Ejemplo1_2526\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectosCTEyCEE\CTEHE2019\Proyectos\Ejemplo2_2526_Config1\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54446D9E-E769-4902-A4E0-967F288EDFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187B26F7-7806-4086-9049-C11770763884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="192" windowWidth="24912" windowHeight="9300" firstSheet="1" activeTab="3" xr2:uid="{829F4AA1-FD7A-4B31-950F-C78552EFC445}"/>
+    <workbookView xWindow="1230" yWindow="410" windowWidth="24030" windowHeight="16330" activeTab="3" xr2:uid="{829F4AA1-FD7A-4B31-950F-C78552EFC445}"/>
   </bookViews>
   <sheets>
     <sheet name="Opaque Enclosures" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Opaque Enclosures'!$A$1:$F$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Opaque Enclosures detail'!$A$1:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Opaque Enclosures detail'!$A$1:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Openings!$A$1:$M$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Thermal Bridges'!$A$1:$D$11</definedName>
   </definedNames>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="187">
   <si>
     <t>Enclosure ID</t>
   </si>
@@ -380,9 +380,6 @@
     <t>MURO INTERIOR</t>
   </si>
   <si>
-    <t>MURO INT</t>
-  </si>
-  <si>
     <t>1. Placa de yeso laminado</t>
   </si>
   <si>
@@ -597,13 +594,32 @@
   </si>
   <si>
     <t>ESQUINAS SALIENTES (AL EXTERIOR)</t>
+  </si>
+  <si>
+    <t>TAB INT</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>Ri</t>
+  </si>
+  <si>
+    <t>Resistance (m^2 K / W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U W / (m^2 K) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,8 +648,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -652,8 +675,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -661,11 +696,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -695,11 +740,33 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1035,20 +1102,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1088,7 +1155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1108,7 +1175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1128,7 +1195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1148,7 +1215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1168,7 +1235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -1188,7 +1255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -1208,7 +1275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -1243,9 +1310,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
@@ -1265,54 +1332,54 @@
         <v>39</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>40</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>144</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>41</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>43</v>
       </c>
       <c r="P1" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:17" ht="56" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="F2" s="8">
         <v>0.61</v>
@@ -1324,7 +1391,7 @@
         <v>49</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J2" s="8">
         <v>1.5</v>
@@ -1333,39 +1400,39 @@
         <v>0.25</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="N2" s="8">
         <v>0.05</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P2" s="8">
         <v>3</v>
       </c>
       <c r="Q2" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="56" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="F3" s="8">
         <v>0.42</v>
@@ -1377,7 +1444,7 @@
         <v>49</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J3" s="8">
         <v>1.5</v>
@@ -1386,30 +1453,30 @@
         <v>0.25</v>
       </c>
       <c r="L3" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="N3" s="8">
         <v>0.05</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P3" s="8">
         <v>3</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="52.8" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="56" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>46</v>
@@ -1427,10 +1494,10 @@
         <v>26</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J4" s="8">
         <v>2.2000000000000002</v>
@@ -1439,10 +1506,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="N4" s="8">
         <v>0.05</v>
@@ -1454,24 +1521,24 @@
         <v>26</v>
       </c>
       <c r="Q4" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="56" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="F5" s="8">
         <v>0.42</v>
@@ -1480,10 +1547,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J5" s="8">
         <v>2.4</v>
@@ -1492,39 +1559,39 @@
         <v>0.2</v>
       </c>
       <c r="L5" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="N5" s="8">
         <v>0.05</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P5" s="8">
         <v>3</v>
       </c>
       <c r="Q5" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="56" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="F6" s="8">
         <v>0.61</v>
@@ -1533,10 +1600,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J6" s="8">
         <v>2.4</v>
@@ -1545,22 +1612,22 @@
         <v>0.2</v>
       </c>
       <c r="L6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="N6" s="8">
         <v>0.05</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P6" s="8">
         <v>3</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1576,25 +1643,25 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
@@ -1635,7 +1702,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
@@ -1679,7 +1746,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
@@ -1723,7 +1790,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -1767,7 +1834,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -1811,7 +1878,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
@@ -1863,765 +1930,698 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5114B08C-B571-46B9-88DB-28107939E9A8}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="12"/>
+    <col min="8" max="8" width="19.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="H1" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>0.03</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2">
         <v>0.23</v>
       </c>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="4" t="s">
+      <c r="H2" s="20">
+        <f>IFERROR(D2/E2,0)</f>
+        <v>0.21428571428571425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>0.24</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>0.04</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="4" t="s">
+      <c r="H3" s="20">
+        <f t="shared" ref="H3:H8" si="0">IFERROR(D3/E3,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>0.24</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4">
         <v>0.24</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="4" t="s">
+      <c r="H4" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>0.01</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>0.24</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="4" t="s">
+      <c r="H5" s="20">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666671E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>0.05</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="4" t="s">
+      <c r="H6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>0.25</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="4" t="s">
+      <c r="H7" s="20">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>0.25</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="H8" s="20">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>0.247</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9">
         <v>1.76</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="4" t="s">
+      <c r="H9" s="20">
+        <f>SUM(H2:H8)</f>
+        <v>7.3759523809523806</v>
+      </c>
+      <c r="I9">
+        <f>1/H9</f>
+        <v>0.13557571257948933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>0.24</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>0.24</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="D11" s="11">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="11">
         <v>0.25</v>
       </c>
       <c r="F11" s="11">
         <v>0.25</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="20">
+        <f>D11/E11</f>
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="20">
+        <f t="shared" ref="H12:H15" si="1">D12/E12</f>
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="E13" s="11">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="20">
+        <f t="shared" si="1"/>
+        <v>0.97560975609756095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="20">
+        <f t="shared" si="1"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="20">
+        <f t="shared" si="1"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="13"/>
+      <c r="H16" s="21">
+        <f>SUM(H11:H15)</f>
+        <v>1.1836097560975611</v>
+      </c>
+      <c r="I16" s="11">
+        <f>1/H16</f>
+        <v>0.84487306297395304</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="L16" s="16">
+        <f>1/(J16+H16+K16)</f>
+        <v>0.6927079813475705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="B17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18">
+        <v>0.05</v>
+      </c>
+      <c r="E18">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
+        <v>0.06</v>
+      </c>
+      <c r="E20">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21">
         <v>0.25</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="4">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="E21">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22">
+        <v>0.05</v>
+      </c>
+      <c r="E22">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E23">
         <v>0.25</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E15" s="4">
+    </row>
+    <row r="24" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24">
+        <v>0.01</v>
+      </c>
+      <c r="E24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F24">
+        <v>0.16</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25">
+        <v>0.05</v>
+      </c>
+      <c r="E25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F25">
+        <v>0.17</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26">
+        <v>0.12</v>
+      </c>
+      <c r="E26">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27">
         <v>0.25</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="E27">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28">
+        <v>0.05</v>
+      </c>
+      <c r="E28">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="D30">
+        <v>0.01</v>
+      </c>
+      <c r="E30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F30">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32">
+        <v>0.06</v>
+      </c>
+      <c r="E32">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33">
+        <v>0.1</v>
+      </c>
+      <c r="E33">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34">
+        <v>0.3</v>
+      </c>
+      <c r="E34">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E35">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36">
+        <v>0.08</v>
+      </c>
+      <c r="E36">
+        <v>1.65</v>
+      </c>
+      <c r="F36">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E37">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38">
+        <v>0.12</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40">
+        <v>0.05</v>
+      </c>
+      <c r="E40">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41">
+        <v>0.16</v>
+      </c>
+      <c r="E41">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42">
         <v>0.01</v>
       </c>
-      <c r="E16" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0.37</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="4">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="E19" s="4">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="E42">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43">
         <v>0.25</v>
       </c>
-      <c r="E20" s="4">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="E43">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E44">
         <v>0.25</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="E25" s="4">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E32" s="4">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1.65</v>
-      </c>
-      <c r="F35" s="11">
-        <v>2.98</v>
-      </c>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="E37" s="4">
-        <v>2</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="11">
-        <v>0.17</v>
-      </c>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="E40" s="4">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G43" xr:uid="{5114B08C-B571-46B9-88DB-28107939E9A8}"/>
-  <mergeCells count="30">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="F11:F15"/>
+  <mergeCells count="1">
     <mergeCell ref="G11:G15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="G16:G22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="G38:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2633,15 +2633,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>76</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>82</v>
       </c>
@@ -2807,129 +2807,129 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C2" s="1">
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1">
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1">
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="1">
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="1">
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C7" s="1">
         <v>0.51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="1">
         <v>0.23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C10" s="1">
         <v>0.84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="1">
         <v>0.05</v>
@@ -2942,12 +2942,43 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B2DC61-A6CD-458B-8D61-12C99369A4D6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <f>A1+B1</f>
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <f>IFERROR(A1,B1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>A2+B2</f>
+        <v>2.1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>